--- a/data/masterDataSheetEbullition2018.xlsx
+++ b/data/masterDataSheetEbullition2018.xlsx
@@ -11675,10 +11675,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{5CA483D4-C41D-417E-8D63-0D98FB7C53A4}" name="Trygstad, Paul" id="-446774500" dateTime="2019-02-07T14:38:24"/>
   <userInfo guid="{4E659921-2954-41F5-8AF2-1C73A2AF6257}" name="Waldo, Sarah" id="-1918608538" dateTime="2019-07-12T11:33:05"/>
-  <userInfo guid="{DF695B1B-2654-754D-BA07-4C5FE11AB254}" name="Microsoft Office User" id="-296974230" dateTime="2020-03-31T12:10:58"/>
 </users>
 </file>
 
